--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_157.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_157.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d6434667-Reviews-Courtyard_by_Marriott_Los_Angeles_L_A_LIVE-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>270</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-Los-Angeles-LA-LIVE.h7783838.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_157.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_157.xlsx
@@ -4127,7 +4127,7 @@
         <v>62794</v>
       </c>
       <c r="B2" t="n">
-        <v>132805</v>
+        <v>163612</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4198,7 +4198,7 @@
         <v>62794</v>
       </c>
       <c r="B3" t="n">
-        <v>132806</v>
+        <v>163613</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -4269,7 +4269,7 @@
         <v>62794</v>
       </c>
       <c r="B4" t="n">
-        <v>132807</v>
+        <v>163614</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -4340,7 +4340,7 @@
         <v>62794</v>
       </c>
       <c r="B5" t="n">
-        <v>132808</v>
+        <v>163615</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -4405,7 +4405,7 @@
         <v>62794</v>
       </c>
       <c r="B6" t="n">
-        <v>132809</v>
+        <v>163616</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -4470,7 +4470,7 @@
         <v>62794</v>
       </c>
       <c r="B7" t="n">
-        <v>132810</v>
+        <v>163617</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -4541,7 +4541,7 @@
         <v>62794</v>
       </c>
       <c r="B8" t="n">
-        <v>132811</v>
+        <v>163618</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -4681,7 +4681,7 @@
         <v>62794</v>
       </c>
       <c r="B10" t="n">
-        <v>132812</v>
+        <v>163619</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
@@ -4752,7 +4752,7 @@
         <v>62794</v>
       </c>
       <c r="B11" t="n">
-        <v>132813</v>
+        <v>163620</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -4821,7 +4821,7 @@
         <v>62794</v>
       </c>
       <c r="B12" t="n">
-        <v>132814</v>
+        <v>163621</v>
       </c>
       <c r="C12" t="s">
         <v>142</v>
@@ -4961,7 +4961,7 @@
         <v>62794</v>
       </c>
       <c r="B14" t="n">
-        <v>132815</v>
+        <v>163622</v>
       </c>
       <c r="C14" t="s">
         <v>159</v>
@@ -5032,7 +5032,7 @@
         <v>62794</v>
       </c>
       <c r="B15" t="n">
-        <v>132816</v>
+        <v>163623</v>
       </c>
       <c r="C15" t="s">
         <v>169</v>
@@ -5168,7 +5168,7 @@
         <v>62794</v>
       </c>
       <c r="B17" t="n">
-        <v>132817</v>
+        <v>163624</v>
       </c>
       <c r="C17" t="s">
         <v>189</v>
@@ -5233,7 +5233,7 @@
         <v>62794</v>
       </c>
       <c r="B18" t="n">
-        <v>132818</v>
+        <v>163625</v>
       </c>
       <c r="C18" t="s">
         <v>199</v>
@@ -5432,7 +5432,7 @@
         <v>62794</v>
       </c>
       <c r="B21" t="n">
-        <v>132819</v>
+        <v>163626</v>
       </c>
       <c r="C21" t="s">
         <v>224</v>
@@ -5497,7 +5497,7 @@
         <v>62794</v>
       </c>
       <c r="B22" t="n">
-        <v>132820</v>
+        <v>163627</v>
       </c>
       <c r="C22" t="s">
         <v>233</v>
@@ -5568,7 +5568,7 @@
         <v>62794</v>
       </c>
       <c r="B23" t="n">
-        <v>132821</v>
+        <v>163628</v>
       </c>
       <c r="C23" t="s">
         <v>239</v>
@@ -5629,7 +5629,7 @@
         <v>62794</v>
       </c>
       <c r="B24" t="n">
-        <v>132822</v>
+        <v>163629</v>
       </c>
       <c r="C24" t="s">
         <v>245</v>
@@ -5696,7 +5696,7 @@
         <v>62794</v>
       </c>
       <c r="B25" t="n">
-        <v>132823</v>
+        <v>163630</v>
       </c>
       <c r="C25" t="s">
         <v>252</v>
@@ -5757,7 +5757,7 @@
         <v>62794</v>
       </c>
       <c r="B26" t="n">
-        <v>132824</v>
+        <v>163631</v>
       </c>
       <c r="C26" t="s">
         <v>258</v>
@@ -5824,7 +5824,7 @@
         <v>62794</v>
       </c>
       <c r="B27" t="n">
-        <v>132825</v>
+        <v>163632</v>
       </c>
       <c r="C27" t="s">
         <v>265</v>
@@ -5885,7 +5885,7 @@
         <v>62794</v>
       </c>
       <c r="B28" t="n">
-        <v>132826</v>
+        <v>163633</v>
       </c>
       <c r="C28" t="s">
         <v>270</v>
@@ -5952,7 +5952,7 @@
         <v>62794</v>
       </c>
       <c r="B29" t="n">
-        <v>132827</v>
+        <v>163634</v>
       </c>
       <c r="C29" t="s">
         <v>276</v>
@@ -6080,7 +6080,7 @@
         <v>62794</v>
       </c>
       <c r="B31" t="n">
-        <v>132828</v>
+        <v>163635</v>
       </c>
       <c r="C31" t="s">
         <v>288</v>
@@ -6149,7 +6149,7 @@
         <v>62794</v>
       </c>
       <c r="B32" t="n">
-        <v>132829</v>
+        <v>163636</v>
       </c>
       <c r="C32" t="s">
         <v>298</v>
@@ -6220,7 +6220,7 @@
         <v>62794</v>
       </c>
       <c r="B33" t="n">
-        <v>132830</v>
+        <v>163637</v>
       </c>
       <c r="C33" t="s">
         <v>307</v>
@@ -6289,7 +6289,7 @@
         <v>62794</v>
       </c>
       <c r="B34" t="n">
-        <v>132831</v>
+        <v>163638</v>
       </c>
       <c r="C34" t="s">
         <v>317</v>
@@ -6354,7 +6354,7 @@
         <v>62794</v>
       </c>
       <c r="B35" t="n">
-        <v>132832</v>
+        <v>163639</v>
       </c>
       <c r="C35" t="s">
         <v>327</v>
@@ -6490,7 +6490,7 @@
         <v>62794</v>
       </c>
       <c r="B37" t="n">
-        <v>132833</v>
+        <v>163640</v>
       </c>
       <c r="C37" t="s">
         <v>343</v>
@@ -6555,7 +6555,7 @@
         <v>62794</v>
       </c>
       <c r="B38" t="n">
-        <v>132834</v>
+        <v>163641</v>
       </c>
       <c r="C38" t="s">
         <v>352</v>
@@ -6620,7 +6620,7 @@
         <v>62794</v>
       </c>
       <c r="B39" t="n">
-        <v>132835</v>
+        <v>163642</v>
       </c>
       <c r="C39" t="s">
         <v>362</v>
@@ -6687,7 +6687,7 @@
         <v>62794</v>
       </c>
       <c r="B40" t="n">
-        <v>132836</v>
+        <v>163643</v>
       </c>
       <c r="C40" t="s">
         <v>368</v>
@@ -6939,7 +6939,7 @@
         <v>62794</v>
       </c>
       <c r="B44" t="n">
-        <v>132837</v>
+        <v>163644</v>
       </c>
       <c r="C44" t="s">
         <v>394</v>
@@ -7008,7 +7008,7 @@
         <v>62794</v>
       </c>
       <c r="B45" t="n">
-        <v>132838</v>
+        <v>163645</v>
       </c>
       <c r="C45" t="s">
         <v>404</v>
@@ -7146,7 +7146,7 @@
         <v>62794</v>
       </c>
       <c r="B47" t="n">
-        <v>132839</v>
+        <v>163646</v>
       </c>
       <c r="C47" t="s">
         <v>420</v>
@@ -7272,7 +7272,7 @@
         <v>62794</v>
       </c>
       <c r="B49" t="n">
-        <v>132840</v>
+        <v>163647</v>
       </c>
       <c r="C49" t="s">
         <v>433</v>
@@ -7333,7 +7333,7 @@
         <v>62794</v>
       </c>
       <c r="B50" t="n">
-        <v>132841</v>
+        <v>163648</v>
       </c>
       <c r="C50" t="s">
         <v>439</v>
@@ -7390,7 +7390,7 @@
         <v>62794</v>
       </c>
       <c r="B51" t="n">
-        <v>132842</v>
+        <v>163649</v>
       </c>
       <c r="C51" t="s">
         <v>446</v>
@@ -7459,7 +7459,7 @@
         <v>62794</v>
       </c>
       <c r="B52" t="n">
-        <v>132843</v>
+        <v>163650</v>
       </c>
       <c r="C52" t="s">
         <v>456</v>
@@ -7526,7 +7526,7 @@
         <v>62794</v>
       </c>
       <c r="B53" t="n">
-        <v>132844</v>
+        <v>163651</v>
       </c>
       <c r="C53" t="s">
         <v>464</v>
@@ -7593,7 +7593,7 @@
         <v>62794</v>
       </c>
       <c r="B54" t="n">
-        <v>132845</v>
+        <v>163652</v>
       </c>
       <c r="C54" t="s">
         <v>470</v>
@@ -7662,7 +7662,7 @@
         <v>62794</v>
       </c>
       <c r="B55" t="n">
-        <v>132846</v>
+        <v>163653</v>
       </c>
       <c r="C55" t="s">
         <v>479</v>
@@ -7723,7 +7723,7 @@
         <v>62794</v>
       </c>
       <c r="B56" t="n">
-        <v>132847</v>
+        <v>163654</v>
       </c>
       <c r="C56" t="s">
         <v>485</v>
@@ -7794,7 +7794,7 @@
         <v>62794</v>
       </c>
       <c r="B57" t="n">
-        <v>132848</v>
+        <v>163655</v>
       </c>
       <c r="C57" t="s">
         <v>494</v>
@@ -7855,7 +7855,7 @@
         <v>62794</v>
       </c>
       <c r="B58" t="n">
-        <v>132849</v>
+        <v>163656</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
@@ -8044,7 +8044,7 @@
         <v>62794</v>
       </c>
       <c r="B61" t="n">
-        <v>132850</v>
+        <v>163657</v>
       </c>
       <c r="C61" t="s">
         <v>521</v>
@@ -8109,7 +8109,7 @@
         <v>62794</v>
       </c>
       <c r="B62" t="n">
-        <v>132851</v>
+        <v>163658</v>
       </c>
       <c r="C62" t="s">
         <v>526</v>
@@ -8365,7 +8365,7 @@
         <v>62794</v>
       </c>
       <c r="B66" t="n">
-        <v>132852</v>
+        <v>163659</v>
       </c>
       <c r="C66" t="s">
         <v>553</v>
@@ -8432,7 +8432,7 @@
         <v>62794</v>
       </c>
       <c r="B67" t="n">
-        <v>132853</v>
+        <v>163660</v>
       </c>
       <c r="C67" t="s">
         <v>561</v>
@@ -8493,7 +8493,7 @@
         <v>62794</v>
       </c>
       <c r="B68" t="n">
-        <v>132854</v>
+        <v>163661</v>
       </c>
       <c r="C68" t="s">
         <v>568</v>
@@ -8554,7 +8554,7 @@
         <v>62794</v>
       </c>
       <c r="B69" t="n">
-        <v>132855</v>
+        <v>163662</v>
       </c>
       <c r="C69" t="s">
         <v>575</v>
@@ -8615,7 +8615,7 @@
         <v>62794</v>
       </c>
       <c r="B70" t="n">
-        <v>132856</v>
+        <v>163663</v>
       </c>
       <c r="C70" t="s">
         <v>582</v>
@@ -8676,7 +8676,7 @@
         <v>62794</v>
       </c>
       <c r="B71" t="n">
-        <v>132857</v>
+        <v>163664</v>
       </c>
       <c r="C71" t="s">
         <v>589</v>
@@ -8743,7 +8743,7 @@
         <v>62794</v>
       </c>
       <c r="B72" t="n">
-        <v>132858</v>
+        <v>163665</v>
       </c>
       <c r="C72" t="s">
         <v>595</v>
@@ -8875,7 +8875,7 @@
         <v>62794</v>
       </c>
       <c r="B74" t="n">
-        <v>132859</v>
+        <v>163666</v>
       </c>
       <c r="C74" t="s">
         <v>610</v>
@@ -8936,7 +8936,7 @@
         <v>62794</v>
       </c>
       <c r="B75" t="n">
-        <v>132860</v>
+        <v>163667</v>
       </c>
       <c r="C75" t="s">
         <v>618</v>
@@ -8997,7 +8997,7 @@
         <v>62794</v>
       </c>
       <c r="B76" t="n">
-        <v>132861</v>
+        <v>163668</v>
       </c>
       <c r="C76" t="s">
         <v>624</v>
@@ -9062,7 +9062,7 @@
         <v>62794</v>
       </c>
       <c r="B77" t="n">
-        <v>132862</v>
+        <v>163669</v>
       </c>
       <c r="C77" t="s">
         <v>631</v>
@@ -9194,7 +9194,7 @@
         <v>62794</v>
       </c>
       <c r="B79" t="n">
-        <v>132863</v>
+        <v>163670</v>
       </c>
       <c r="C79" t="s">
         <v>646</v>
@@ -9261,7 +9261,7 @@
         <v>62794</v>
       </c>
       <c r="B80" t="n">
-        <v>132864</v>
+        <v>163671</v>
       </c>
       <c r="C80" t="s">
         <v>652</v>
@@ -9401,7 +9401,7 @@
         <v>62794</v>
       </c>
       <c r="B82" t="n">
-        <v>132865</v>
+        <v>163672</v>
       </c>
       <c r="C82" t="s">
         <v>671</v>
@@ -9527,7 +9527,7 @@
         <v>62794</v>
       </c>
       <c r="B84" t="n">
-        <v>132866</v>
+        <v>163673</v>
       </c>
       <c r="C84" t="s">
         <v>685</v>
@@ -9592,7 +9592,7 @@
         <v>62794</v>
       </c>
       <c r="B85" t="n">
-        <v>132867</v>
+        <v>163674</v>
       </c>
       <c r="C85" t="s">
         <v>692</v>
@@ -9714,7 +9714,7 @@
         <v>62794</v>
       </c>
       <c r="B87" t="n">
-        <v>132868</v>
+        <v>163675</v>
       </c>
       <c r="C87" t="s">
         <v>705</v>
@@ -9779,7 +9779,7 @@
         <v>62794</v>
       </c>
       <c r="B88" t="n">
-        <v>132869</v>
+        <v>163676</v>
       </c>
       <c r="C88" t="s">
         <v>712</v>
@@ -9840,7 +9840,7 @@
         <v>62794</v>
       </c>
       <c r="B89" t="n">
-        <v>132870</v>
+        <v>163677</v>
       </c>
       <c r="C89" t="s">
         <v>718</v>
@@ -9962,7 +9962,7 @@
         <v>62794</v>
       </c>
       <c r="B91" t="n">
-        <v>132871</v>
+        <v>163678</v>
       </c>
       <c r="C91" t="s">
         <v>731</v>
@@ -10029,7 +10029,7 @@
         <v>62794</v>
       </c>
       <c r="B92" t="n">
-        <v>132872</v>
+        <v>163679</v>
       </c>
       <c r="C92" t="s">
         <v>737</v>
@@ -10098,7 +10098,7 @@
         <v>62794</v>
       </c>
       <c r="B93" t="n">
-        <v>132873</v>
+        <v>163680</v>
       </c>
       <c r="C93" t="s">
         <v>746</v>
@@ -10159,7 +10159,7 @@
         <v>62794</v>
       </c>
       <c r="B94" t="n">
-        <v>132874</v>
+        <v>163681</v>
       </c>
       <c r="C94" t="s">
         <v>752</v>
@@ -10287,7 +10287,7 @@
         <v>62794</v>
       </c>
       <c r="B96" t="n">
-        <v>132875</v>
+        <v>163682</v>
       </c>
       <c r="C96" t="s">
         <v>766</v>
@@ -10348,7 +10348,7 @@
         <v>62794</v>
       </c>
       <c r="B97" t="n">
-        <v>132876</v>
+        <v>163683</v>
       </c>
       <c r="C97" t="s">
         <v>773</v>
@@ -10413,7 +10413,7 @@
         <v>62794</v>
       </c>
       <c r="B98" t="n">
-        <v>132877</v>
+        <v>163684</v>
       </c>
       <c r="C98" t="s">
         <v>779</v>
@@ -10541,7 +10541,7 @@
         <v>62794</v>
       </c>
       <c r="B100" t="n">
-        <v>132878</v>
+        <v>163685</v>
       </c>
       <c r="C100" t="s">
         <v>794</v>
@@ -10602,7 +10602,7 @@
         <v>62794</v>
       </c>
       <c r="B101" t="n">
-        <v>132879</v>
+        <v>163686</v>
       </c>
       <c r="C101" t="s">
         <v>802</v>
@@ -10669,7 +10669,7 @@
         <v>62794</v>
       </c>
       <c r="B102" t="n">
-        <v>132880</v>
+        <v>163687</v>
       </c>
       <c r="C102" t="s">
         <v>808</v>
@@ -10736,7 +10736,7 @@
         <v>62794</v>
       </c>
       <c r="B103" t="n">
-        <v>132881</v>
+        <v>163688</v>
       </c>
       <c r="C103" t="s">
         <v>814</v>
@@ -11199,7 +11199,7 @@
         <v>62794</v>
       </c>
       <c r="B110" t="n">
-        <v>132882</v>
+        <v>163689</v>
       </c>
       <c r="C110" t="s">
         <v>861</v>
@@ -11266,7 +11266,7 @@
         <v>62794</v>
       </c>
       <c r="B111" t="n">
-        <v>132883</v>
+        <v>163690</v>
       </c>
       <c r="C111" t="s">
         <v>868</v>
@@ -11398,7 +11398,7 @@
         <v>62794</v>
       </c>
       <c r="B113" t="n">
-        <v>132884</v>
+        <v>163691</v>
       </c>
       <c r="C113" t="s">
         <v>883</v>
@@ -11534,7 +11534,7 @@
         <v>62794</v>
       </c>
       <c r="B115" t="n">
-        <v>132885</v>
+        <v>163692</v>
       </c>
       <c r="C115" t="s">
         <v>899</v>
@@ -11666,7 +11666,7 @@
         <v>62794</v>
       </c>
       <c r="B117" t="n">
-        <v>132886</v>
+        <v>163693</v>
       </c>
       <c r="C117" t="s">
         <v>913</v>
@@ -11733,7 +11733,7 @@
         <v>62794</v>
       </c>
       <c r="B118" t="n">
-        <v>132887</v>
+        <v>163694</v>
       </c>
       <c r="C118" t="s">
         <v>919</v>
@@ -11871,7 +11871,7 @@
         <v>62794</v>
       </c>
       <c r="B120" t="n">
-        <v>132888</v>
+        <v>163695</v>
       </c>
       <c r="C120" t="s">
         <v>933</v>
@@ -12078,7 +12078,7 @@
         <v>62794</v>
       </c>
       <c r="B123" t="n">
-        <v>132889</v>
+        <v>163696</v>
       </c>
       <c r="C123" t="s">
         <v>959</v>
@@ -12147,7 +12147,7 @@
         <v>62794</v>
       </c>
       <c r="B124" t="n">
-        <v>132890</v>
+        <v>163697</v>
       </c>
       <c r="C124" t="s">
         <v>966</v>
@@ -12279,7 +12279,7 @@
         <v>62794</v>
       </c>
       <c r="B126" t="n">
-        <v>132891</v>
+        <v>163698</v>
       </c>
       <c r="C126" t="s">
         <v>981</v>
@@ -12344,7 +12344,7 @@
         <v>62794</v>
       </c>
       <c r="B127" t="n">
-        <v>132892</v>
+        <v>163699</v>
       </c>
       <c r="C127" t="s">
         <v>987</v>
@@ -12411,7 +12411,7 @@
         <v>62794</v>
       </c>
       <c r="B128" t="n">
-        <v>132893</v>
+        <v>163700</v>
       </c>
       <c r="C128" t="s">
         <v>992</v>
@@ -12547,7 +12547,7 @@
         <v>62794</v>
       </c>
       <c r="B130" t="n">
-        <v>132894</v>
+        <v>163701</v>
       </c>
       <c r="C130" t="s">
         <v>1010</v>
@@ -12618,7 +12618,7 @@
         <v>62794</v>
       </c>
       <c r="B131" t="n">
-        <v>132895</v>
+        <v>163702</v>
       </c>
       <c r="C131" t="s">
         <v>1016</v>
@@ -12965,7 +12965,7 @@
         <v>62794</v>
       </c>
       <c r="B136" t="n">
-        <v>132896</v>
+        <v>163703</v>
       </c>
       <c r="C136" t="s">
         <v>1057</v>
@@ -13032,7 +13032,7 @@
         <v>62794</v>
       </c>
       <c r="B137" t="n">
-        <v>132897</v>
+        <v>163704</v>
       </c>
       <c r="C137" t="s">
         <v>1062</v>
@@ -13103,7 +13103,7 @@
         <v>62794</v>
       </c>
       <c r="B138" t="n">
-        <v>132898</v>
+        <v>163705</v>
       </c>
       <c r="C138" t="s">
         <v>1071</v>
@@ -13239,7 +13239,7 @@
         <v>62794</v>
       </c>
       <c r="B140" t="n">
-        <v>132899</v>
+        <v>163706</v>
       </c>
       <c r="C140" t="s">
         <v>1083</v>
@@ -13304,7 +13304,7 @@
         <v>62794</v>
       </c>
       <c r="B141" t="n">
-        <v>132900</v>
+        <v>163707</v>
       </c>
       <c r="C141" t="s">
         <v>1089</v>
@@ -13444,7 +13444,7 @@
         <v>62794</v>
       </c>
       <c r="B143" t="n">
-        <v>132901</v>
+        <v>163708</v>
       </c>
       <c r="C143" t="s">
         <v>1103</v>
@@ -13574,7 +13574,7 @@
         <v>62794</v>
       </c>
       <c r="B145" t="n">
-        <v>132902</v>
+        <v>163709</v>
       </c>
       <c r="C145" t="s">
         <v>1116</v>
@@ -13708,7 +13708,7 @@
         <v>62794</v>
       </c>
       <c r="B147" t="n">
-        <v>132903</v>
+        <v>163710</v>
       </c>
       <c r="C147" t="s">
         <v>1129</v>
@@ -13777,7 +13777,7 @@
         <v>62794</v>
       </c>
       <c r="B148" t="n">
-        <v>132904</v>
+        <v>163711</v>
       </c>
       <c r="C148" t="s">
         <v>1136</v>
@@ -13842,7 +13842,7 @@
         <v>62794</v>
       </c>
       <c r="B149" t="n">
-        <v>132905</v>
+        <v>163712</v>
       </c>
       <c r="C149" t="s">
         <v>1142</v>
@@ -13980,7 +13980,7 @@
         <v>62794</v>
       </c>
       <c r="B151" t="n">
-        <v>132906</v>
+        <v>163713</v>
       </c>
       <c r="C151" t="s">
         <v>1154</v>
@@ -14047,7 +14047,7 @@
         <v>62794</v>
       </c>
       <c r="B152" t="n">
-        <v>132907</v>
+        <v>163714</v>
       </c>
       <c r="C152" t="s">
         <v>1160</v>
@@ -14185,7 +14185,7 @@
         <v>62794</v>
       </c>
       <c r="B154" t="n">
-        <v>132908</v>
+        <v>163715</v>
       </c>
       <c r="C154" t="s">
         <v>1172</v>
